--- a/Week07/variables2evaluate.xlsx
+++ b/Week07/variables2evaluate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ml\homework\ML-000\Week07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B47183B-24E6-413F-A960-139C84C7B198}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9A6E4D-4201-4584-9D6F-2A9DB8BA4C50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4743212F-6C62-4749-8309-2EA588DD1194}"/>
   </bookViews>
@@ -25,44 +25,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="123">
   <si>
     <t>公司名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>存续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上市状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IPO上市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高新技术企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所在省</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>企业法人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经营状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,7 +435,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基于天眼查网站信息，评估某公司的相关变量选择如下：</t>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衍生变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否高新技术企业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立时期（如：建国前，改革开放后，互联网泡沫后，金融危机后等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为原告的数量 / 总诉讼的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实缴资本 / 注册资本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资本 / 人员规模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大股东占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过字典匹配生成关键领域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分词后剔除无效词的词数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资本同比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资本 / 同行业平均注册资本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码中包含的各类数字的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过股东定义关联企业，引入关联企业的相关变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诉讼数量的同比变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在市的同行业（同类型）的企业的相关变量引入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近几年的专利数量变化情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +523,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +536,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -510,8 +571,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEF618A-D4C8-4A3C-98BA-9D3F5394FCAA}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="B1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -839,577 +903,636 @@
     <col min="1" max="1" width="14.58203125" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="1" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>36</v>
+      <c r="C34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>74</v>
+      <c r="B41" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>54</v>
+      <c r="D43" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
-        <v>55</v>
+      <c r="D44" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>66</v>
+      <c r="B52" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>37</v>
+      <c r="C53" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
-        <v>99</v>
+      <c r="B62" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C77" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C81" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C84" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C86" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C89" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C95" t="s">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C96" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C99" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C101" t="s">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C103" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C104" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C105" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C106" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C107" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C108" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C109" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C110" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C111" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C112" t="s">
-        <v>90</v>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
